--- a/mempool/v0/mempool_testout.xlsx
+++ b/mempool/v0/mempool_testout.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>time_used</t>
   </si>
@@ -237,6 +237,57 @@
   </si>
   <si>
     <t>186788</t>
+  </si>
+  <si>
+    <t>93.94</t>
+  </si>
+  <si>
+    <t>186844</t>
+  </si>
+  <si>
+    <t>73.01</t>
+  </si>
+  <si>
+    <t>186796</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>72.11</t>
+  </si>
+  <si>
+    <t>186757</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>186793</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>72.88</t>
+  </si>
+  <si>
+    <t>186767</t>
+  </si>
+  <si>
+    <t>76.24</t>
+  </si>
+  <si>
+    <t>186685</t>
+  </si>
+  <si>
+    <t>74.02</t>
+  </si>
+  <si>
+    <t>186625</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -572,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -586,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -600,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -614,7 +665,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -642,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>

--- a/mempool/v0/mempool_testout.xlsx
+++ b/mempool/v0/mempool_testout.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>time_used</t>
   </si>
@@ -288,6 +288,144 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>71.11</t>
+  </si>
+  <si>
+    <t>186644</t>
+  </si>
+  <si>
+    <t>70.97</t>
+  </si>
+  <si>
+    <t>186866</t>
+  </si>
+  <si>
+    <t>105.80</t>
+  </si>
+  <si>
+    <t>187016</t>
+  </si>
+  <si>
+    <t>70.75</t>
+  </si>
+  <si>
+    <t>186505</t>
+  </si>
+  <si>
+    <t>70.92</t>
+  </si>
+  <si>
+    <t>186858</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>240.37</t>
+  </si>
+  <si>
+    <t>186739</t>
+  </si>
+  <si>
+    <t>1142.99</t>
+  </si>
+  <si>
+    <t>187407</t>
+  </si>
+  <si>
+    <t>71.52</t>
+  </si>
+  <si>
+    <t>187083</t>
+  </si>
+  <si>
+    <t>72.19</t>
+  </si>
+  <si>
+    <t>187244</t>
+  </si>
+  <si>
+    <t>69.05</t>
+  </si>
+  <si>
+    <t>177699</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>69.38</t>
+  </si>
+  <si>
+    <t>177489</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>71.66</t>
+  </si>
+  <si>
+    <t>177599</t>
+  </si>
+  <si>
+    <t>764</t>
+  </si>
+  <si>
+    <t>69.29</t>
+  </si>
+  <si>
+    <t>177500</t>
+  </si>
+  <si>
+    <t>761</t>
+  </si>
+  <si>
+    <t>76.72</t>
+  </si>
+  <si>
+    <t>177583</t>
+  </si>
+  <si>
+    <t>745</t>
+  </si>
+  <si>
+    <t>71.26</t>
+  </si>
+  <si>
+    <t>177438</t>
+  </si>
+  <si>
+    <t>739</t>
+  </si>
+  <si>
+    <t>70.24</t>
+  </si>
+  <si>
+    <t>177486</t>
+  </si>
+  <si>
+    <t>77.08</t>
+  </si>
+  <si>
+    <t>177492</t>
+  </si>
+  <si>
+    <t>767</t>
+  </si>
+  <si>
+    <t>68.64</t>
+  </si>
+  <si>
+    <t>177562</t>
+  </si>
+  <si>
+    <t>776</t>
   </si>
 </sst>
 </file>
@@ -623,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -637,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -651,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -665,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -693,7 +831,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>

--- a/mempool/v0/mempool_testout.xlsx
+++ b/mempool/v0/mempool_testout.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>time_used</t>
   </si>
@@ -426,6 +426,147 @@
   </si>
   <si>
     <t>776</t>
+  </si>
+  <si>
+    <t>72.12</t>
+  </si>
+  <si>
+    <t>177464</t>
+  </si>
+  <si>
+    <t>724</t>
+  </si>
+  <si>
+    <t>85.59</t>
+  </si>
+  <si>
+    <t>177549</t>
+  </si>
+  <si>
+    <t>748</t>
+  </si>
+  <si>
+    <t>76.56</t>
+  </si>
+  <si>
+    <t>177569</t>
+  </si>
+  <si>
+    <t>779</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>80.96</t>
+  </si>
+  <si>
+    <t>177687</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>76.55</t>
+  </si>
+  <si>
+    <t>177540</t>
+  </si>
+  <si>
+    <t>725</t>
+  </si>
+  <si>
+    <t>111.82</t>
+  </si>
+  <si>
+    <t>177347</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>245.47</t>
+  </si>
+  <si>
+    <t>177517</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>89.74</t>
+  </si>
+  <si>
+    <t>177541</t>
+  </si>
+  <si>
+    <t>80.25</t>
+  </si>
+  <si>
+    <t>177513</t>
+  </si>
+  <si>
+    <t>85.86</t>
+  </si>
+  <si>
+    <t>177585</t>
+  </si>
+  <si>
+    <t>770</t>
+  </si>
+  <si>
+    <t>91.04</t>
+  </si>
+  <si>
+    <t>177445</t>
+  </si>
+  <si>
+    <t>747</t>
+  </si>
+  <si>
+    <t>310.11</t>
+  </si>
+  <si>
+    <t>177646</t>
+  </si>
+  <si>
+    <t>733</t>
+  </si>
+  <si>
+    <t>106.68</t>
+  </si>
+  <si>
+    <t>177526</t>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
+    <t>83.66</t>
+  </si>
+  <si>
+    <t>177151</t>
+  </si>
+  <si>
+    <t>137.33</t>
+  </si>
+  <si>
+    <t>177334</t>
+  </si>
+  <si>
+    <t>84.53</t>
+  </si>
+  <si>
+    <t>177479</t>
+  </si>
+  <si>
+    <t>738</t>
+  </si>
+  <si>
+    <t>95.74</t>
+  </si>
+  <si>
+    <t>177640</t>
   </si>
 </sst>
 </file>
@@ -761,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -775,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -789,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>

--- a/mempool/v0/mempool_testout.xlsx
+++ b/mempool/v0/mempool_testout.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>time_used</t>
   </si>
@@ -567,6 +567,99 @@
   </si>
   <si>
     <t>177640</t>
+  </si>
+  <si>
+    <t>81.22</t>
+  </si>
+  <si>
+    <t>177458</t>
+  </si>
+  <si>
+    <t>744</t>
+  </si>
+  <si>
+    <t>70.34</t>
+  </si>
+  <si>
+    <t>177661</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>82.78</t>
+  </si>
+  <si>
+    <t>177256</t>
+  </si>
+  <si>
+    <t>86.25</t>
+  </si>
+  <si>
+    <t>177550</t>
+  </si>
+  <si>
+    <t>63.25</t>
+  </si>
+  <si>
+    <t>177401</t>
+  </si>
+  <si>
+    <t>768</t>
+  </si>
+  <si>
+    <t>71.84</t>
+  </si>
+  <si>
+    <t>177385</t>
+  </si>
+  <si>
+    <t>65.68</t>
+  </si>
+  <si>
+    <t>176684</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>55.94</t>
+  </si>
+  <si>
+    <t>164628</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>54.22</t>
+  </si>
+  <si>
+    <t>165079</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>400317</t>
+  </si>
+  <si>
+    <t>57.85</t>
+  </si>
+  <si>
+    <t>164774</t>
+  </si>
+  <si>
+    <t>863</t>
+  </si>
+  <si>
+    <t>400311</t>
   </si>
 </sst>
 </file>
@@ -902,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -916,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -930,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -972,7 +1065,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -986,7 +1079,7 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>

--- a/mempool/v0/mempool_testout.xlsx
+++ b/mempool/v0/mempool_testout.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
   <si>
     <t>time_used</t>
   </si>
@@ -660,6 +660,42 @@
   </si>
   <si>
     <t>400311</t>
+  </si>
+  <si>
+    <t>63.42</t>
+  </si>
+  <si>
+    <t>176387</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>480958540</t>
+  </si>
+  <si>
+    <t>58.46</t>
+  </si>
+  <si>
+    <t>176538</t>
+  </si>
+  <si>
+    <t>771</t>
+  </si>
+  <si>
+    <t>480961845</t>
+  </si>
+  <si>
+    <t>62.59</t>
+  </si>
+  <si>
+    <t>176346</t>
+  </si>
+  <si>
+    <t>731</t>
+  </si>
+  <si>
+    <t>480959152</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -1009,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -1023,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1065,7 +1101,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -1079,7 +1115,7 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>

--- a/mempool/v0/mempool_testout.xlsx
+++ b/mempool/v0/mempool_testout.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>time_used</t>
   </si>
@@ -567,6 +567,84 @@
   </si>
   <si>
     <t>177640</t>
+  </si>
+  <si>
+    <t>74.62</t>
+  </si>
+  <si>
+    <t>177723</t>
+  </si>
+  <si>
+    <t>757</t>
+  </si>
+  <si>
+    <t>63.53</t>
+  </si>
+  <si>
+    <t>177605</t>
+  </si>
+  <si>
+    <t>734</t>
+  </si>
+  <si>
+    <t>94.01</t>
+  </si>
+  <si>
+    <t>177372</t>
+  </si>
+  <si>
+    <t>769</t>
+  </si>
+  <si>
+    <t>108.84</t>
+  </si>
+  <si>
+    <t>177468</t>
+  </si>
+  <si>
+    <t>64.36</t>
+  </si>
+  <si>
+    <t>177377</t>
+  </si>
+  <si>
+    <t>782</t>
+  </si>
+  <si>
+    <t>71.45</t>
+  </si>
+  <si>
+    <t>177371</t>
+  </si>
+  <si>
+    <t>713</t>
+  </si>
+  <si>
+    <t>104.72</t>
+  </si>
+  <si>
+    <t>177600</t>
+  </si>
+  <si>
+    <t>735</t>
+  </si>
+  <si>
+    <t>108.98</t>
+  </si>
+  <si>
+    <t>177514</t>
+  </si>
+  <si>
+    <t>731</t>
+  </si>
+  <si>
+    <t>72.06</t>
+  </si>
+  <si>
+    <t>177511</t>
+  </si>
+  <si>
+    <t>710</t>
   </si>
 </sst>
 </file>
@@ -902,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -916,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -930,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -944,7 +1022,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>

--- a/mempool/v0/mempool_testout.xlsx
+++ b/mempool/v0/mempool_testout.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
   <si>
     <t>time_used</t>
   </si>
@@ -645,6 +645,75 @@
   </si>
   <si>
     <t>710</t>
+  </si>
+  <si>
+    <t>55.18</t>
+  </si>
+  <si>
+    <t>176237</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>480961299</t>
+  </si>
+  <si>
+    <t>54.19</t>
+  </si>
+  <si>
+    <t>176135</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>480959330</t>
+  </si>
+  <si>
+    <t>56.05</t>
+  </si>
+  <si>
+    <t>176318</t>
+  </si>
+  <si>
+    <t>480959466</t>
+  </si>
+  <si>
+    <t>56.85</t>
+  </si>
+  <si>
+    <t>176029</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>480959238</t>
+  </si>
+  <si>
+    <t>59.07</t>
+  </si>
+  <si>
+    <t>176396</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>480957938</t>
+  </si>
+  <si>
+    <t>57.51</t>
+  </si>
+  <si>
+    <t>176073</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
+    <t>480960510</t>
   </si>
 </sst>
 </file>
@@ -980,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -994,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -1008,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1022,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1050,7 +1119,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -1064,7 +1133,7 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>232</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>

--- a/mempool/v0/mempool_testout.xlsx
+++ b/mempool/v0/mempool_testout.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t>time_used</t>
   </si>
@@ -714,6 +714,48 @@
   </si>
   <si>
     <t>480960510</t>
+  </si>
+  <si>
+    <t>70.37</t>
+  </si>
+  <si>
+    <t>176334</t>
+  </si>
+  <si>
+    <t>480955070</t>
+  </si>
+  <si>
+    <t>63.67</t>
+  </si>
+  <si>
+    <t>176309</t>
+  </si>
+  <si>
+    <t>320645618</t>
+  </si>
+  <si>
+    <t>63.20</t>
+  </si>
+  <si>
+    <t>176065</t>
+  </si>
+  <si>
+    <t>785</t>
+  </si>
+  <si>
+    <t>320648511</t>
+  </si>
+  <si>
+    <t>64.43</t>
+  </si>
+  <si>
+    <t>176308</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>320650502</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -1063,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -1077,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1091,7 +1133,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1133,7 +1175,7 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>

--- a/mempool/v0/mempool_testout.xlsx
+++ b/mempool/v0/mempool_testout.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
   <si>
     <t>time_used</t>
   </si>
@@ -756,6 +756,126 @@
   </si>
   <si>
     <t>320650502</t>
+  </si>
+  <si>
+    <t>185.83</t>
+  </si>
+  <si>
+    <t>176438</t>
+  </si>
+  <si>
+    <t>167877838</t>
+  </si>
+  <si>
+    <t>143.94</t>
+  </si>
+  <si>
+    <t>176304</t>
+  </si>
+  <si>
+    <t>788</t>
+  </si>
+  <si>
+    <t>167864140</t>
+  </si>
+  <si>
+    <t>158.79</t>
+  </si>
+  <si>
+    <t>176120</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>167880182</t>
+  </si>
+  <si>
+    <t>117.38</t>
+  </si>
+  <si>
+    <t>176224</t>
+  </si>
+  <si>
+    <t>793</t>
+  </si>
+  <si>
+    <t>167879214</t>
+  </si>
+  <si>
+    <t>160.96</t>
+  </si>
+  <si>
+    <t>176298</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
+    <t>167891219</t>
+  </si>
+  <si>
+    <t>80.77</t>
+  </si>
+  <si>
+    <t>176337</t>
+  </si>
+  <si>
+    <t>772</t>
+  </si>
+  <si>
+    <t>167906092</t>
+  </si>
+  <si>
+    <t>62.08</t>
+  </si>
+  <si>
+    <t>176432</t>
+  </si>
+  <si>
+    <t>758</t>
+  </si>
+  <si>
+    <t>167891168</t>
+  </si>
+  <si>
+    <t>66.93</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>167869935</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>176418</t>
+  </si>
+  <si>
+    <t>167884038</t>
+  </si>
+  <si>
+    <t>63.28</t>
+  </si>
+  <si>
+    <t>176131</t>
+  </si>
+  <si>
+    <t>167899249</t>
+  </si>
+  <si>
+    <t>83.67</t>
+  </si>
+  <si>
+    <t>176244</t>
+  </si>
+  <si>
+    <t>763</t>
+  </si>
+  <si>
+    <t>167896551</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -1105,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -1119,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1175,7 +1295,7 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>

--- a/mempool/v0/mempool_testout.xlsx
+++ b/mempool/v0/mempool_testout.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
   <si>
     <t>time_used</t>
   </si>
@@ -876,6 +876,945 @@
   </si>
   <si>
     <t>167896551</t>
+  </si>
+  <si>
+    <t>79.74</t>
+  </si>
+  <si>
+    <t>121151</t>
+  </si>
+  <si>
+    <t>3346</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>107.34</t>
+  </si>
+  <si>
+    <t>120746</t>
+  </si>
+  <si>
+    <t>3412</t>
+  </si>
+  <si>
+    <t>183.62</t>
+  </si>
+  <si>
+    <t>121028</t>
+  </si>
+  <si>
+    <t>3362</t>
+  </si>
+  <si>
+    <t>225.95</t>
+  </si>
+  <si>
+    <t>120739</t>
+  </si>
+  <si>
+    <t>3344</t>
+  </si>
+  <si>
+    <t>145.82</t>
+  </si>
+  <si>
+    <t>121055</t>
+  </si>
+  <si>
+    <t>3410</t>
+  </si>
+  <si>
+    <t>181.16</t>
+  </si>
+  <si>
+    <t>121170</t>
+  </si>
+  <si>
+    <t>3338</t>
+  </si>
+  <si>
+    <t>786.94</t>
+  </si>
+  <si>
+    <t>120884</t>
+  </si>
+  <si>
+    <t>3325</t>
+  </si>
+  <si>
+    <t>452.16</t>
+  </si>
+  <si>
+    <t>121132</t>
+  </si>
+  <si>
+    <t>3255</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>415.32</t>
+  </si>
+  <si>
+    <t>120809</t>
+  </si>
+  <si>
+    <t>3340</t>
+  </si>
+  <si>
+    <t>370.67</t>
+  </si>
+  <si>
+    <t>121204</t>
+  </si>
+  <si>
+    <t>3417</t>
+  </si>
+  <si>
+    <t>288.66</t>
+  </si>
+  <si>
+    <t>121159</t>
+  </si>
+  <si>
+    <t>3364</t>
+  </si>
+  <si>
+    <t>319.98</t>
+  </si>
+  <si>
+    <t>121206</t>
+  </si>
+  <si>
+    <t>3330</t>
+  </si>
+  <si>
+    <t>292.01</t>
+  </si>
+  <si>
+    <t>121043</t>
+  </si>
+  <si>
+    <t>3347</t>
+  </si>
+  <si>
+    <t>313.68</t>
+  </si>
+  <si>
+    <t>121099</t>
+  </si>
+  <si>
+    <t>3299</t>
+  </si>
+  <si>
+    <t>388.00</t>
+  </si>
+  <si>
+    <t>120962</t>
+  </si>
+  <si>
+    <t>3329</t>
+  </si>
+  <si>
+    <t>302.64</t>
+  </si>
+  <si>
+    <t>121273</t>
+  </si>
+  <si>
+    <t>3389</t>
+  </si>
+  <si>
+    <t>380.82</t>
+  </si>
+  <si>
+    <t>120907</t>
+  </si>
+  <si>
+    <t>3403</t>
+  </si>
+  <si>
+    <t>155.02</t>
+  </si>
+  <si>
+    <t>121235</t>
+  </si>
+  <si>
+    <t>3295</t>
+  </si>
+  <si>
+    <t>159.58</t>
+  </si>
+  <si>
+    <t>120943</t>
+  </si>
+  <si>
+    <t>3423</t>
+  </si>
+  <si>
+    <t>437.34</t>
+  </si>
+  <si>
+    <t>120806</t>
+  </si>
+  <si>
+    <t>3375</t>
+  </si>
+  <si>
+    <t>165.86</t>
+  </si>
+  <si>
+    <t>121249</t>
+  </si>
+  <si>
+    <t>3308</t>
+  </si>
+  <si>
+    <t>154.87</t>
+  </si>
+  <si>
+    <t>121022</t>
+  </si>
+  <si>
+    <t>3339</t>
+  </si>
+  <si>
+    <t>182.13</t>
+  </si>
+  <si>
+    <t>120844</t>
+  </si>
+  <si>
+    <t>3371</t>
+  </si>
+  <si>
+    <t>884.76</t>
+  </si>
+  <si>
+    <t>121478</t>
+  </si>
+  <si>
+    <t>318.64</t>
+  </si>
+  <si>
+    <t>120882</t>
+  </si>
+  <si>
+    <t>3400</t>
+  </si>
+  <si>
+    <t>309.52</t>
+  </si>
+  <si>
+    <t>121191</t>
+  </si>
+  <si>
+    <t>3310</t>
+  </si>
+  <si>
+    <t>337.25</t>
+  </si>
+  <si>
+    <t>121168</t>
+  </si>
+  <si>
+    <t>289.72</t>
+  </si>
+  <si>
+    <t>120885</t>
+  </si>
+  <si>
+    <t>3372</t>
+  </si>
+  <si>
+    <t>313.10</t>
+  </si>
+  <si>
+    <t>121223</t>
+  </si>
+  <si>
+    <t>3292</t>
+  </si>
+  <si>
+    <t>127.29</t>
+  </si>
+  <si>
+    <t>121203</t>
+  </si>
+  <si>
+    <t>3239</t>
+  </si>
+  <si>
+    <t>135.21</t>
+  </si>
+  <si>
+    <t>3312</t>
+  </si>
+  <si>
+    <t>186.37</t>
+  </si>
+  <si>
+    <t>121139</t>
+  </si>
+  <si>
+    <t>3291</t>
+  </si>
+  <si>
+    <t>793.99</t>
+  </si>
+  <si>
+    <t>121256</t>
+  </si>
+  <si>
+    <t>3273</t>
+  </si>
+  <si>
+    <t>308.14</t>
+  </si>
+  <si>
+    <t>120737</t>
+  </si>
+  <si>
+    <t>3354</t>
+  </si>
+  <si>
+    <t>292.27</t>
+  </si>
+  <si>
+    <t>120847</t>
+  </si>
+  <si>
+    <t>3316</t>
+  </si>
+  <si>
+    <t>320.31</t>
+  </si>
+  <si>
+    <t>121125</t>
+  </si>
+  <si>
+    <t>3309</t>
+  </si>
+  <si>
+    <t>360.05</t>
+  </si>
+  <si>
+    <t>120923</t>
+  </si>
+  <si>
+    <t>306.30</t>
+  </si>
+  <si>
+    <t>120619</t>
+  </si>
+  <si>
+    <t>3358</t>
+  </si>
+  <si>
+    <t>325.24</t>
+  </si>
+  <si>
+    <t>121198</t>
+  </si>
+  <si>
+    <t>3394</t>
+  </si>
+  <si>
+    <t>648.85</t>
+  </si>
+  <si>
+    <t>121003</t>
+  </si>
+  <si>
+    <t>3383</t>
+  </si>
+  <si>
+    <t>312.11</t>
+  </si>
+  <si>
+    <t>3392</t>
+  </si>
+  <si>
+    <t>1506.48</t>
+  </si>
+  <si>
+    <t>-79</t>
+  </si>
+  <si>
+    <t>1226.18</t>
+  </si>
+  <si>
+    <t>778.36</t>
+  </si>
+  <si>
+    <t>238.81</t>
+  </si>
+  <si>
+    <t>221.73</t>
+  </si>
+  <si>
+    <t>225.65</t>
+  </si>
+  <si>
+    <t>225.17</t>
+  </si>
+  <si>
+    <t>223.05</t>
+  </si>
+  <si>
+    <t>208.09</t>
+  </si>
+  <si>
+    <t>890.51</t>
+  </si>
+  <si>
+    <t>216.73</t>
+  </si>
+  <si>
+    <t>233.30</t>
+  </si>
+  <si>
+    <t>908.53</t>
+  </si>
+  <si>
+    <t>870.83</t>
+  </si>
+  <si>
+    <t>921.92</t>
+  </si>
+  <si>
+    <t>298.99</t>
+  </si>
+  <si>
+    <t>231.23</t>
+  </si>
+  <si>
+    <t>918.46</t>
+  </si>
+  <si>
+    <t>843.20</t>
+  </si>
+  <si>
+    <t>224.07</t>
+  </si>
+  <si>
+    <t>895.14</t>
+  </si>
+  <si>
+    <t>225.94</t>
+  </si>
+  <si>
+    <t>283.67</t>
+  </si>
+  <si>
+    <t>244.60</t>
+  </si>
+  <si>
+    <t>214.95</t>
+  </si>
+  <si>
+    <t>246.57</t>
+  </si>
+  <si>
+    <t>1509.02</t>
+  </si>
+  <si>
+    <t>227.90</t>
+  </si>
+  <si>
+    <t>245.36</t>
+  </si>
+  <si>
+    <t>189.54</t>
+  </si>
+  <si>
+    <t>202.97</t>
+  </si>
+  <si>
+    <t>232.62</t>
+  </si>
+  <si>
+    <t>216.17</t>
+  </si>
+  <si>
+    <t>223.53</t>
+  </si>
+  <si>
+    <t>584.29</t>
+  </si>
+  <si>
+    <t>217.45</t>
+  </si>
+  <si>
+    <t>911.22</t>
+  </si>
+  <si>
+    <t>871.07</t>
+  </si>
+  <si>
+    <t>214.73</t>
+  </si>
+  <si>
+    <t>223.82</t>
+  </si>
+  <si>
+    <t>839.74</t>
+  </si>
+  <si>
+    <t>274.41</t>
+  </si>
+  <si>
+    <t>859.70</t>
+  </si>
+  <si>
+    <t>899.61</t>
+  </si>
+  <si>
+    <t>1094.66</t>
+  </si>
+  <si>
+    <t>904.62</t>
+  </si>
+  <si>
+    <t>869.48</t>
+  </si>
+  <si>
+    <t>1045.56</t>
+  </si>
+  <si>
+    <t>887.48</t>
+  </si>
+  <si>
+    <t>1191.06</t>
+  </si>
+  <si>
+    <t>943.89</t>
+  </si>
+  <si>
+    <t>210.83</t>
+  </si>
+  <si>
+    <t>256.02</t>
+  </si>
+  <si>
+    <t>208.93</t>
+  </si>
+  <si>
+    <t>204.37</t>
+  </si>
+  <si>
+    <t>61.03</t>
+  </si>
+  <si>
+    <t>57.77</t>
+  </si>
+  <si>
+    <t>57.85</t>
+  </si>
+  <si>
+    <t>41.45</t>
+  </si>
+  <si>
+    <t>70.16</t>
+  </si>
+  <si>
+    <t>60.64</t>
+  </si>
+  <si>
+    <t>971.02</t>
+  </si>
+  <si>
+    <t>61.73</t>
+  </si>
+  <si>
+    <t>52.19</t>
+  </si>
+  <si>
+    <t>60.43</t>
+  </si>
+  <si>
+    <t>353.89</t>
+  </si>
+  <si>
+    <t>892.47</t>
+  </si>
+  <si>
+    <t>52.61</t>
+  </si>
+  <si>
+    <t>56.93</t>
+  </si>
+  <si>
+    <t>962.79</t>
+  </si>
+  <si>
+    <t>63.19</t>
+  </si>
+  <si>
+    <t>1358.16</t>
+  </si>
+  <si>
+    <t>20762.66</t>
+  </si>
+  <si>
+    <t>196.19</t>
+  </si>
+  <si>
+    <t>138.46</t>
+  </si>
+  <si>
+    <t>141.83</t>
+  </si>
+  <si>
+    <t>140.89</t>
+  </si>
+  <si>
+    <t>154.41</t>
+  </si>
+  <si>
+    <t>126.99</t>
+  </si>
+  <si>
+    <t>1104.97</t>
+  </si>
+  <si>
+    <t>944.69</t>
+  </si>
+  <si>
+    <t>17470.38</t>
+  </si>
+  <si>
+    <t>16822.83</t>
+  </si>
+  <si>
+    <t>17752.90</t>
+  </si>
+  <si>
+    <t>18098.00</t>
+  </si>
+  <si>
+    <t>207.43</t>
+  </si>
+  <si>
+    <t>180.95</t>
+  </si>
+  <si>
+    <t>190.94</t>
+  </si>
+  <si>
+    <t>20255.63</t>
+  </si>
+  <si>
+    <t>14829.89</t>
+  </si>
+  <si>
+    <t>16560.89</t>
+  </si>
+  <si>
+    <t>2148.67</t>
+  </si>
+  <si>
+    <t>1828.57</t>
+  </si>
+  <si>
+    <t>1783.31</t>
+  </si>
+  <si>
+    <t>1958.65</t>
+  </si>
+  <si>
+    <t>1954.99</t>
+  </si>
+  <si>
+    <t>2478.60</t>
+  </si>
+  <si>
+    <t>2665.09</t>
+  </si>
+  <si>
+    <t>1822.38</t>
+  </si>
+  <si>
+    <t>1856.96</t>
+  </si>
+  <si>
+    <t>9998.90</t>
+  </si>
+  <si>
+    <t>7242.48</t>
+  </si>
+  <si>
+    <t>5002.85</t>
+  </si>
+  <si>
+    <t>8046.76</t>
+  </si>
+  <si>
+    <t>4965.11</t>
+  </si>
+  <si>
+    <t>5781.53</t>
+  </si>
+  <si>
+    <t>5686.44</t>
+  </si>
+  <si>
+    <t>6503.50</t>
+  </si>
+  <si>
+    <t>5438.85</t>
+  </si>
+  <si>
+    <t>6708.00</t>
+  </si>
+  <si>
+    <t>5614.40</t>
+  </si>
+  <si>
+    <t>4329.00</t>
+  </si>
+  <si>
+    <t>6488.39</t>
+  </si>
+  <si>
+    <t>5951.29</t>
+  </si>
+  <si>
+    <t>9384.57</t>
+  </si>
+  <si>
+    <t>6020.54</t>
+  </si>
+  <si>
+    <t>6556.68</t>
+  </si>
+  <si>
+    <t>1387.89</t>
+  </si>
+  <si>
+    <t>307.02</t>
+  </si>
+  <si>
+    <t>477.17</t>
+  </si>
+  <si>
+    <t>443.06</t>
+  </si>
+  <si>
+    <t>430.34</t>
+  </si>
+  <si>
+    <t>1655.15</t>
+  </si>
+  <si>
+    <t>395.80</t>
+  </si>
+  <si>
+    <t>299.05</t>
+  </si>
+  <si>
+    <t>320.09</t>
+  </si>
+  <si>
+    <t>443.49</t>
+  </si>
+  <si>
+    <t>4672.41</t>
+  </si>
+  <si>
+    <t>4640.44</t>
+  </si>
+  <si>
+    <t>65.29</t>
+  </si>
+  <si>
+    <t>64.80</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>19986.77</t>
+  </si>
+  <si>
+    <t>20367.36</t>
+  </si>
+  <si>
+    <t>20391.61</t>
+  </si>
+  <si>
+    <t>20966.03</t>
+  </si>
+  <si>
+    <t>6048.15</t>
+  </si>
+  <si>
+    <t>4709.13</t>
+  </si>
+  <si>
+    <t>6648.15</t>
+  </si>
+  <si>
+    <t>13114.88</t>
+  </si>
+  <si>
+    <t>6637.13</t>
+  </si>
+  <si>
+    <t>4527.46</t>
+  </si>
+  <si>
+    <t>4071.63</t>
+  </si>
+  <si>
+    <t>4542.68</t>
+  </si>
+  <si>
+    <t>5173.68</t>
+  </si>
+  <si>
+    <t>4293.16</t>
+  </si>
+  <si>
+    <t>4048.24</t>
+  </si>
+  <si>
+    <t>4270.59</t>
+  </si>
+  <si>
+    <t>4234.39</t>
+  </si>
+  <si>
+    <t>4899.11</t>
+  </si>
+  <si>
+    <t>4260.55</t>
+  </si>
+  <si>
+    <t>4385.05</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>4046.41</t>
+  </si>
+  <si>
+    <t>7627.09</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>3844.70</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>3822.05</t>
+  </si>
+  <si>
+    <t>1217</t>
+  </si>
+  <si>
+    <t>-43</t>
+  </si>
+  <si>
+    <t>4000.39</t>
+  </si>
+  <si>
+    <t>1191</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>4295.54</t>
+  </si>
+  <si>
+    <t>1222</t>
+  </si>
+  <si>
+    <t>4211.32</t>
+  </si>
+  <si>
+    <t>-51</t>
+  </si>
+  <si>
+    <t>4574.90</t>
+  </si>
+  <si>
+    <t>1187</t>
+  </si>
+  <si>
+    <t>-36</t>
+  </si>
+  <si>
+    <t>4520.76</t>
+  </si>
+  <si>
+    <t>-38</t>
+  </si>
+  <si>
+    <t>4314.12</t>
+  </si>
+  <si>
+    <t>1195</t>
+  </si>
+  <si>
+    <t>-39</t>
+  </si>
+  <si>
+    <t>4354.20</t>
+  </si>
+  <si>
+    <t>1215</t>
+  </si>
+  <si>
+    <t>4633.13</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>-41</t>
+  </si>
+  <si>
+    <t>6997.56</t>
+  </si>
+  <si>
+    <t>-47</t>
+  </si>
+  <si>
+    <t>4124.84</t>
+  </si>
+  <si>
+    <t>1178</t>
+  </si>
+  <si>
+    <t>4436.82</t>
+  </si>
+  <si>
+    <t>1204</t>
+  </si>
+  <si>
+    <t>4190.89</t>
+  </si>
+  <si>
+    <t>1199</t>
+  </si>
+  <si>
+    <t>-48</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +2136,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>564</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -1211,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>597</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -1225,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>598</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -1239,7 +2178,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>599</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1253,7 +2192,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1267,7 +2206,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1281,7 +2220,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -1295,7 +2234,7 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>

--- a/mempool/v0/mempool_testout.xlsx
+++ b/mempool/v0/mempool_testout.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="643">
   <si>
     <t>time_used</t>
   </si>
@@ -1815,6 +1815,135 @@
   </si>
   <si>
     <t>-48</t>
+  </si>
+  <si>
+    <t>11832.60</t>
+  </si>
+  <si>
+    <t>1209</t>
+  </si>
+  <si>
+    <t>4327.61</t>
+  </si>
+  <si>
+    <t>11969.92</t>
+  </si>
+  <si>
+    <t>1216</t>
+  </si>
+  <si>
+    <t>-56</t>
+  </si>
+  <si>
+    <t>6725.78</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>6929.34</t>
+  </si>
+  <si>
+    <t>1218</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>4640.84</t>
+  </si>
+  <si>
+    <t>1220</t>
+  </si>
+  <si>
+    <t>6218.32</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>2360</t>
+  </si>
+  <si>
+    <t>19808.47</t>
+  </si>
+  <si>
+    <t>1228</t>
+  </si>
+  <si>
+    <t>-45</t>
+  </si>
+  <si>
+    <t>18817.36</t>
+  </si>
+  <si>
+    <t>-52</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>45474.20</t>
+  </si>
+  <si>
+    <t>-44</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>22754.03</t>
+  </si>
+  <si>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>23035.05</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>19566.54</t>
+  </si>
+  <si>
+    <t>1197</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>22935.13</t>
+  </si>
+  <si>
+    <t>19510.81</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
+    <t>19376.09</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>23108.37</t>
+  </si>
+  <si>
+    <t>20088.93</t>
+  </si>
+  <si>
+    <t>-42</t>
+  </si>
+  <si>
+    <t>20231.11</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
 </sst>
 </file>
@@ -2150,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>597</v>
+        <v>641</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -2164,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -2178,7 +2307,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>599</v>
+        <v>570</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -2192,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -2220,7 +2349,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>642</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
